--- a/Current/me_fix.xlsx
+++ b/Current/me_fix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CT-IP" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f>SUM(B3:B4)</f>
         <v>115000</v>
       </c>
@@ -754,7 +754,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -920,7 +920,7 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f>SUM(B3:B5)</f>
         <v>440000</v>
       </c>
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4"/>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f>SUM(B3:B4)</f>
         <v>75000</v>
       </c>
@@ -1582,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A22:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Current/me_fix.xlsx
+++ b/Current/me_fix.xlsx
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1671,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="8">
-        <v>72482.820000000007</v>
+        <v>972482.82</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1691,7 +1691,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="8">
-        <v>703057.74</v>
+        <v>803057.74</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1723,7 +1723,7 @@
     <row r="8" spans="1:14">
       <c r="B8" s="3">
         <f>SUM(B3:B6)</f>
-        <v>782431.85</v>
+        <v>1782431.85</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
